--- a/Assets/Levels/Level2/Tiles.xlsx
+++ b/Assets/Levels/Level2/Tiles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\Level2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1C9D9D-90E3-42AA-9380-36DBC136DA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128AE285-64CE-4808-8CCC-7FA0F9209D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{66BFC6A7-1E39-479E-8CEF-70E7C3D6150E}"/>
   </bookViews>
@@ -83,8 +83,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Zarez" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -396,29 +396,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BDF63A-C0DA-44B6-8D15-EF4E1E908A5C}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>62</v>
       </c>
-      <c r="C1" s="1">
-        <v>200</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>+A1+62</f>
         <v>62</v>
@@ -426,31 +423,25 @@
       <c r="B2" s="1">
         <v>62</v>
       </c>
-      <c r="C2" s="1">
-        <v>200</v>
-      </c>
-      <c r="D2" s="2">
-        <f>+D1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <f>+C1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A33" si="0">+A2+62</f>
+        <f t="shared" ref="A3:A44" si="0">+A2+62</f>
         <v>124</v>
       </c>
       <c r="B3" s="1">
         <v>62</v>
       </c>
-      <c r="C3" s="1">
-        <v>200</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D33" si="1">+D2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C44" si="1">+C2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>186</v>
@@ -458,15 +449,12 @@
       <c r="B4" s="1">
         <v>62</v>
       </c>
-      <c r="C4" s="1">
-        <v>200</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>248</v>
@@ -474,15 +462,12 @@
       <c r="B5" s="1">
         <v>62</v>
       </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>310</v>
@@ -490,15 +475,12 @@
       <c r="B6" s="1">
         <v>62</v>
       </c>
-      <c r="C6" s="1">
-        <v>200</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>372</v>
@@ -506,15 +488,12 @@
       <c r="B7" s="1">
         <v>62</v>
       </c>
-      <c r="C7" s="1">
-        <v>200</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>434</v>
@@ -522,15 +501,12 @@
       <c r="B8" s="1">
         <v>62</v>
       </c>
-      <c r="C8" s="1">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>496</v>
@@ -538,15 +514,12 @@
       <c r="B9" s="1">
         <v>62</v>
       </c>
-      <c r="C9" s="1">
-        <v>200</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>558</v>
@@ -554,15 +527,12 @@
       <c r="B10" s="1">
         <v>62</v>
       </c>
-      <c r="C10" s="1">
-        <v>200</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>620</v>
@@ -570,15 +540,12 @@
       <c r="B11" s="1">
         <v>62</v>
       </c>
-      <c r="C11" s="1">
-        <v>200</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>682</v>
@@ -586,15 +553,12 @@
       <c r="B12" s="1">
         <v>62</v>
       </c>
-      <c r="C12" s="1">
-        <v>200</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>744</v>
@@ -602,15 +566,12 @@
       <c r="B13" s="1">
         <v>62</v>
       </c>
-      <c r="C13" s="1">
-        <v>200</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>806</v>
@@ -618,15 +579,12 @@
       <c r="B14" s="1">
         <v>62</v>
       </c>
-      <c r="C14" s="1">
-        <v>200</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>868</v>
@@ -634,15 +592,12 @@
       <c r="B15" s="1">
         <v>62</v>
       </c>
-      <c r="C15" s="1">
-        <v>200</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>930</v>
@@ -650,15 +605,12 @@
       <c r="B16" s="1">
         <v>62</v>
       </c>
-      <c r="C16" s="1">
-        <v>200</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>992</v>
@@ -666,15 +618,12 @@
       <c r="B17" s="1">
         <v>62</v>
       </c>
-      <c r="C17" s="1">
-        <v>200</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1054</v>
@@ -682,15 +631,12 @@
       <c r="B18" s="1">
         <v>62</v>
       </c>
-      <c r="C18" s="1">
-        <v>200</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1116</v>
@@ -698,15 +644,12 @@
       <c r="B19" s="1">
         <v>62</v>
       </c>
-      <c r="C19" s="1">
-        <v>200</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1178</v>
@@ -714,15 +657,12 @@
       <c r="B20" s="1">
         <v>62</v>
       </c>
-      <c r="C20" s="1">
-        <v>200</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>1240</v>
@@ -730,15 +670,12 @@
       <c r="B21" s="1">
         <v>62</v>
       </c>
-      <c r="C21" s="1">
-        <v>200</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>1302</v>
@@ -746,15 +683,12 @@
       <c r="B22" s="1">
         <v>62</v>
       </c>
-      <c r="C22" s="1">
-        <v>200</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>1364</v>
@@ -762,15 +696,12 @@
       <c r="B23" s="1">
         <v>62</v>
       </c>
-      <c r="C23" s="1">
-        <v>200</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>1426</v>
@@ -778,15 +709,12 @@
       <c r="B24" s="1">
         <v>62</v>
       </c>
-      <c r="C24" s="1">
-        <v>200</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>1488</v>
@@ -794,15 +722,12 @@
       <c r="B25" s="1">
         <v>62</v>
       </c>
-      <c r="C25" s="1">
-        <v>200</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>1550</v>
@@ -810,15 +735,12 @@
       <c r="B26" s="1">
         <v>62</v>
       </c>
-      <c r="C26" s="1">
-        <v>200</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>1612</v>
@@ -826,15 +748,12 @@
       <c r="B27" s="1">
         <v>62</v>
       </c>
-      <c r="C27" s="1">
-        <v>200</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>1674</v>
@@ -842,15 +761,12 @@
       <c r="B28" s="1">
         <v>62</v>
       </c>
-      <c r="C28" s="1">
-        <v>200</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>1736</v>
@@ -858,15 +774,12 @@
       <c r="B29" s="1">
         <v>62</v>
       </c>
-      <c r="C29" s="1">
-        <v>200</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>1798</v>
@@ -874,15 +787,12 @@
       <c r="B30" s="1">
         <v>62</v>
       </c>
-      <c r="C30" s="1">
-        <v>200</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>1860</v>
@@ -890,15 +800,12 @@
       <c r="B31" s="1">
         <v>62</v>
       </c>
-      <c r="C31" s="1">
-        <v>200</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>1922</v>
@@ -906,15 +813,12 @@
       <c r="B32" s="1">
         <v>62</v>
       </c>
-      <c r="C32" s="1">
-        <v>200</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>1984</v>
@@ -922,10 +826,150 @@
       <c r="B33" s="1">
         <v>62</v>
       </c>
-      <c r="C33" s="1">
-        <v>200</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C33" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="B34" s="1">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>2108</v>
+      </c>
+      <c r="B35" s="1">
+        <v>62</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>2170</v>
+      </c>
+      <c r="B36" s="1">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>2232</v>
+      </c>
+      <c r="B37" s="1">
+        <v>62</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>2294</v>
+      </c>
+      <c r="B38" s="1">
+        <v>62</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>2356</v>
+      </c>
+      <c r="B39" s="1">
+        <v>62</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>2418</v>
+      </c>
+      <c r="B40" s="1">
+        <v>62</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>2480</v>
+      </c>
+      <c r="B41" s="1">
+        <v>62</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>2542</v>
+      </c>
+      <c r="B42" s="1">
+        <v>62</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>2604</v>
+      </c>
+      <c r="B43" s="1">
+        <v>62</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>2666</v>
+      </c>
+      <c r="B44" s="1">
+        <v>62</v>
+      </c>
+      <c r="C44" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>

--- a/Assets/Levels/Level2/Tiles.xlsx
+++ b/Assets/Levels/Level2/Tiles.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\Level2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128AE285-64CE-4808-8CCC-7FA0F9209D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D36ED4E-CEC3-4023-840F-534592D62010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{66BFC6A7-1E39-479E-8CEF-70E7C3D6150E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tiles" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BDF63A-C0DA-44B6-8D15-EF4E1E908A5C}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2">
         <v>2</v>
@@ -417,560 +417,599 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>+A1+62</f>
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <f>+C1</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A44" si="0">+A2+62</f>
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C44" si="1">+C2</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" si="0"/>
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>248</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>310</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>372</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>434</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>558</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>620</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>682</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>744</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>806</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>868</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>930</v>
+        <f>+A15+1</f>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>992</v>
+        <f t="shared" ref="A17:A52" si="0">+A16+1</f>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>1054</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>1116</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>1178</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>1240</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>1302</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>1364</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>1426</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>1488</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>1550</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>1612</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>1674</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>1736</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>1798</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>1860</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>1922</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>1984</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>2046</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>2108</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>2170</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>2232</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>2294</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>2356</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>2418</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>2480</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>2542</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>2604</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>2666</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
         <v>2</v>
       </c>
     </row>
